--- a/src/form_templates/template_71.xlsx
+++ b/src/form_templates/template_71.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\excel test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC743BE5-8090-4C9A-9BC2-8C8EE55A5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D36263-8447-4D1F-BB88-3B7F717B922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAR" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">PAR!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>PROPERTY ACKNOWLEDGMENT RECEIPT</t>
   </si>
@@ -65,9 +54,6 @@
     <t xml:space="preserve">Issued by: </t>
   </si>
   <si>
-    <t xml:space="preserve"> _________________________</t>
-  </si>
-  <si>
     <t>Position/Office</t>
   </si>
   <si>
@@ -78,18 +64,6 @@
   </si>
   <si>
     <t>_______________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Signatue over Printed Name of Supply and/or Property Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Signatue over Printed Name of End User</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _________________________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> __________________________________________</t>
   </si>
   <si>
     <t>Fund Cluster:  ______________________________________</t>
@@ -115,12 +89,22 @@
       <t>SAN ROQUE NATIONAL HIGH SCHOOL</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">   Signature over Printed Name of End User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Signature over Printed Name of Supply and/or Property Custodian</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$₱-3409]#,##0.00"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +159,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,15 +327,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -352,45 +348,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -402,38 +465,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,11 +756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,8 +772,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="23" t="s">
-        <v>19</v>
+      <c r="F1" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="3"/>
     </row>
@@ -740,497 +782,446 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="E7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A7" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="E7" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="19"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="4"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="4"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="4"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="4"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="4"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="4"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="4"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="4"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="4"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="4"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="4"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="18" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="26" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="1:7" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="45"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="E47" s="36"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="40" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="6"/>
-    </row>
-    <row r="49" spans="1:7" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="6"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
+  <mergeCells count="23">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="A46:C46"/>
@@ -1240,13 +1231,10 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0" footer="0.5"/>

--- a/src/form_templates/template_71.xlsx
+++ b/src/form_templates/template_71.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D36263-8447-4D1F-BB88-3B7F717B922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0A09B0-0B16-4A53-96F8-FA6C0FF8BBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,6 +387,63 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,63 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -782,14 +782,14 @@
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
@@ -800,12 +800,12 @@
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -816,48 +816,48 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="E7" s="49" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="E7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -865,7 +865,7 @@
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -873,7 +873,7 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -881,7 +881,7 @@
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -889,7 +889,7 @@
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -897,7 +897,7 @@
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -905,7 +905,7 @@
       <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -913,7 +913,7 @@
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -921,7 +921,7 @@
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -929,7 +929,7 @@
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -937,7 +937,7 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -945,7 +945,7 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -953,7 +953,7 @@
       <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -961,7 +961,7 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -969,7 +969,7 @@
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -977,7 +977,7 @@
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -985,7 +985,7 @@
       <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -993,7 +993,7 @@
       <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -1001,7 +1001,7 @@
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -1009,7 +1009,7 @@
       <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -1017,7 +1017,7 @@
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -1025,7 +1025,7 @@
       <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -1033,7 +1033,7 @@
       <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -1041,7 +1041,7 @@
       <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -1049,7 +1049,7 @@
       <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -1057,7 +1057,7 @@
       <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -1065,7 +1065,7 @@
       <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -1073,7 +1073,7 @@
       <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -1081,7 +1081,7 @@
       <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -1089,7 +1089,7 @@
       <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -1097,7 +1097,7 @@
       <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -1105,7 +1105,7 @@
       <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="56"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -1122,10 +1122,10 @@
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="28"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="12"/>
       <c r="D44" s="15" t="s">
         <v>8</v>
@@ -1135,73 +1135,73 @@
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="A45" s="48"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="45"/>
-      <c r="F46" s="46"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="35" t="s">
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="41" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="38" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,6 +1212,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="E7:G7"/>
@@ -1222,19 +1235,6 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.25" right="1" top="1" bottom="0.5" header="0" footer="0.5"/>
